--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1953104.814939759</v>
+        <v>1950852.735228552</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228319</v>
+        <v>416855.1052283193</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>138.0402488768735</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>78.961229153611</v>
       </c>
     </row>
     <row r="3">
@@ -744,7 +744,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804553998</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0.5642942806899577</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>244.9774942274441</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,16 +896,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>376.2274714067185</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -947,19 +947,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>121.5091210367491</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>95.44336989065498</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>24.16418579024786</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>301.9029411358572</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>81.70472281453355</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,16 +1300,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>15.1721977831228</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>72.81729813874394</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>117.8112368376977</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>93.0791635910501</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892481</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>77.73359659137093</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>152.2221689967083</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>126.9263824507407</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>68.07731664460587</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2239,19 +2239,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>25.52471385612597</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>181.985564370803</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,7 +2375,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>62.64725059288526</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>194.5707234541125</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2767,13 +2767,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>239.484487558311</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>251.395255965333</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>139.5115415340516</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>15.09910835322215</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>108.3764982651491</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3199,7 +3199,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3235,10 +3235,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3433,10 +3433,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>124.9362388746445</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3475,7 +3475,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>24.27150084978894</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3487,10 +3487,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3554,7 +3554,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>20.88994825141578</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>41.02686156550217</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3907,16 +3907,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>25.52471385612597</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>176.2740711281116</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4138,13 +4138,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>108.3764982651491</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,10 +4183,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>162.3413016667496</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>921.7704558796256</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="C2" t="n">
-        <v>921.7704558796256</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D2" t="n">
-        <v>563.5047572728752</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
-        <v>424.0701624477504</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4325,31 +4325,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943747</v>
+        <v>1618.75081059268</v>
       </c>
     </row>
     <row r="3">
@@ -4383,34 +4383,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387292</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
         <v>765.151745215813</v>
@@ -4425,31 +4425,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
         <v>1109.759191501176</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S4" t="n">
-        <v>920.3170115952654</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T4" t="n">
-        <v>698.5503961647914</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U4" t="n">
-        <v>698.5503961647914</v>
+        <v>541.9536817013565</v>
       </c>
       <c r="V4" t="n">
-        <v>698.5503961647914</v>
+        <v>541.9536817013565</v>
       </c>
       <c r="W4" t="n">
-        <v>698.5503961647914</v>
+        <v>294.5016673302008</v>
       </c>
       <c r="X4" t="n">
-        <v>698.5503961647914</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1976.204921733553</v>
+        <v>1935.366530930992</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1566.40401399058</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1208.13831538383</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4562,31 +4562,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3092.578667240559</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3092.578667240559</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V5" t="n">
-        <v>3092.578667240559</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W5" t="n">
-        <v>2739.810011970445</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X5" t="n">
-        <v>2366.344253709365</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="Y5" t="n">
-        <v>1976.204921733553</v>
+        <v>1935.366530930992</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064582</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.189385922801</v>
@@ -4650,7 +4650,7 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4665,7 +4665,7 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125857</v>
@@ -4674,16 +4674,16 @@
         <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>607.0615673062264</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C7" t="n">
-        <v>607.0615673062264</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D7" t="n">
-        <v>456.9449278938906</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E7" t="n">
-        <v>456.9449278938906</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4732,43 +4732,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="U7" t="n">
-        <v>896.478737343187</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="V7" t="n">
-        <v>896.478737343187</v>
+        <v>162.9195607661784</v>
       </c>
       <c r="W7" t="n">
-        <v>607.0615673062264</v>
+        <v>162.9195607661784</v>
       </c>
       <c r="X7" t="n">
-        <v>607.0615673062264</v>
+        <v>162.9195607661784</v>
       </c>
       <c r="Y7" t="n">
-        <v>607.0615673062264</v>
+        <v>162.9195607661784</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>921.7704558796256</v>
+        <v>1582.86133602681</v>
       </c>
       <c r="C8" t="n">
-        <v>552.807938939214</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D8" t="n">
-        <v>552.807938939214</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>167.0196863409697</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>160.0741855917663</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>149.0421394771668</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4814,7 +4814,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919559</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943747</v>
+        <v>1887.813801820605</v>
       </c>
     </row>
     <row r="9">
@@ -4857,43 +4857,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>228.0547555205103</v>
+        <v>286.9548903328654</v>
       </c>
       <c r="C10" t="n">
-        <v>228.0547555205103</v>
+        <v>286.9548903328654</v>
       </c>
       <c r="D10" t="n">
-        <v>228.0547555205103</v>
+        <v>286.9548903328654</v>
       </c>
       <c r="E10" t="n">
-        <v>228.0547555205103</v>
+        <v>286.9548903328654</v>
       </c>
       <c r="F10" t="n">
-        <v>228.0547555205103</v>
+        <v>140.0649428349551</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>140.0649428349551</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>140.0649428349551</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T10" t="n">
-        <v>699.1203903877106</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U10" t="n">
-        <v>699.1203903877106</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="V10" t="n">
-        <v>699.1203903877106</v>
+        <v>576.372060369826</v>
       </c>
       <c r="W10" t="n">
-        <v>409.70322035075</v>
+        <v>286.9548903328654</v>
       </c>
       <c r="X10" t="n">
-        <v>409.70322035075</v>
+        <v>286.9548903328654</v>
       </c>
       <c r="Y10" t="n">
-        <v>409.70322035075</v>
+        <v>286.9548903328654</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,22 +5036,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5118,25 +5118,25 @@
         <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>214.9229991561138</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>214.9229991561138</v>
+        <v>372.4964262156764</v>
       </c>
       <c r="L12" t="n">
-        <v>710.2486053718725</v>
+        <v>867.8220324314351</v>
       </c>
       <c r="M12" t="n">
-        <v>1307.627092998424</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>801.6918836311949</v>
+        <v>734.6461798835968</v>
       </c>
       <c r="C13" t="n">
-        <v>632.755700703288</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D13" t="n">
-        <v>482.6390612909522</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>334.7259677085591</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F13" t="n">
-        <v>187.8360202106487</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797186</v>
@@ -5212,37 +5212,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.4315576023</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396413</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359452</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614346</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y13" t="n">
-        <v>983.3403484614346</v>
+        <v>916.2946447138365</v>
       </c>
     </row>
     <row r="14">
@@ -5273,22 +5273,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5355,28 +5355,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L15" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M15" t="n">
-        <v>842.6091804069456</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N15" t="n">
-        <v>1470.207143961552</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O15" t="n">
-        <v>2022.116874200839</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2445.740023695907</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>762.5348780504994</v>
+        <v>803.2707707770305</v>
       </c>
       <c r="C16" t="n">
-        <v>762.5348780504994</v>
+        <v>634.3345878491236</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5443,43 +5443,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.7118147508</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5348780504994</v>
+        <v>984.9192356072703</v>
       </c>
     </row>
     <row r="17">
@@ -5495,37 +5495,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5592,22 +5592,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>913.2907898187001</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M18" t="n">
-        <v>913.2907898187001</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373307</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
         <v>2516.421633107662</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5674,49 +5674,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038327</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797728</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U19" t="n">
-        <v>2091.550948547922</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V19" t="n">
-        <v>1836.866460342035</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W19" t="n">
-        <v>1547.449290305074</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X19" t="n">
-        <v>1319.459739407057</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y19" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="20">
@@ -5729,13 +5729,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5744,10 +5744,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5774,25 +5774,25 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239596</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L21" t="n">
-        <v>429.5088224239596</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>733.4550657171301</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C22" t="n">
-        <v>564.5188827892232</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>414.4022433768874</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>266.4891497944943</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>119.599202296584</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1135.8961096909</v>
+        <v>960.4603932171079</v>
       </c>
       <c r="Y22" t="n">
-        <v>915.1035305473698</v>
+        <v>739.6678140735778</v>
       </c>
     </row>
     <row r="23">
@@ -5969,22 +5969,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>699.2677182139842</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C25" t="n">
-        <v>530.3315352860773</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D25" t="n">
-        <v>530.3315352860773</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E25" t="n">
-        <v>382.4184417036842</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2383.683032476336</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2200.82819813124</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1981.226733154182</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1692.151506498379</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1437.467018292492</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1148.049848255532</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>920.0602973575143</v>
+        <v>947.7481113147751</v>
       </c>
       <c r="Y25" t="n">
-        <v>699.2677182139842</v>
+        <v>726.955532171245</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,25 +6297,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N27" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>951.777212765616</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="C28" t="n">
-        <v>782.8410298377091</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253734</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6388,46 +6388,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797698</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854705</v>
+        <v>1735.557557724331</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648818</v>
+        <v>1480.873069518444</v>
       </c>
       <c r="W28" t="n">
-        <v>1179.766763663633</v>
+        <v>1191.455899481483</v>
       </c>
       <c r="X28" t="n">
-        <v>951.777212765616</v>
+        <v>963.466348583466</v>
       </c>
       <c r="Y28" t="n">
-        <v>951.777212765616</v>
+        <v>963.466348583466</v>
       </c>
     </row>
     <row r="29">
@@ -6537,16 +6537,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L30" t="n">
-        <v>579.1554649516142</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
         <v>680.0291294438176</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.2707707770319</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C31" t="n">
-        <v>803.2707707770319</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D31" t="n">
-        <v>653.1541313646961</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E31" t="n">
-        <v>505.241037782303</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>358.3510902843926</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>191.1549909992726</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6658,13 +6658,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6698,10 +6698,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6774,19 +6774,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>429.5088224239596</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>916.3099000622261</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>747.3737171343192</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>637.9025067654818</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G34" t="n">
         <v>175.9033664000583</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6917,7 +6917,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1074.481071167373</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373307</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>929.7309773356195</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>591.7265122257528</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>443.8134186433597</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>443.8134186433597</v>
       </c>
       <c r="G37" t="n">
         <v>317.6151975578602</v>
@@ -7123,22 +7123,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2172.545877962528</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1883.470651306726</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1628.786163100839</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1339.368993063878</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1111.379442165861</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>1111.379442165859</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N39" t="n">
-        <v>1671.859558793925</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>916.3099000622261</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>747.3737171343192</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>597.2570777219835</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>449.3439841395904</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F40" t="n">
-        <v>302.45403664168</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>135.2579373565599</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7357,25 +7357,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,10 +7397,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7409,7 +7409,7 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075813</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>671.2000270096659</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M42" t="n">
-        <v>1268.578514636218</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
-        <v>1896.176478190825</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>733.4550657171301</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C43" t="n">
-        <v>564.5188827892232</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D43" t="n">
-        <v>414.4022433768874</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E43" t="n">
-        <v>266.4891497944943</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F43" t="n">
-        <v>119.599202296584</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G43" t="n">
-        <v>119.599202296584</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>119.599202296584</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7597,22 +7597,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1135.8961096909</v>
+        <v>966.2295783107356</v>
       </c>
       <c r="Y43" t="n">
-        <v>915.1035305473698</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7728,22 +7728,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273903</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>590.9096564684977</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>1188.28814409505</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1815.886107649656</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2367.795837888943</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2367.795837888943</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>916.3099000622261</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C46" t="n">
-        <v>747.3737171343192</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D46" t="n">
-        <v>637.9025067654818</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>489.9894131830887</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7831,25 +7831,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1318.750944035996</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y46" t="n">
-        <v>1097.958364892466</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
   </sheetData>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>49.43558426093013</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>72.44497470121874</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>70.88187642684143</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>66.36248435538823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>40.32043864788712</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23938,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>218.1071577446383</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24127,19 +24127,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>139.9994244361429</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>43.72409101823419</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>3.72799611723643</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>31.13893193492467</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,19 +24598,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24655,13 +24655,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>46.69998683093314</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>35.12774237125805</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>40.32043864788571</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>125.1956044930017</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>40.2389747530633</v>
+        <v>105.8997516911</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,7 +25087,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25123,10 +25123,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25321,10 +25321,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>40.58789941762437</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1339494774993</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25375,10 +25375,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>99.26785128072171</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,10 +25597,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>55.74112246243956</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>49.43558426092559</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,13 +26026,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>40.2389747530633</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,10 +26071,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>861532.6408697898</v>
+        <v>861532.6408697896</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>861532.6408697899</v>
+        <v>861532.6408697896</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>861532.6408697898</v>
+        <v>861532.6408697896</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>861532.6408697896</v>
+        <v>861532.6408697898</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>861532.6408697898</v>
+        <v>861532.6408697896</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>861532.6408697898</v>
+        <v>861532.6408697896</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>861532.6408697898</v>
+        <v>861532.6408697896</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>861532.6408697896</v>
+        <v>861532.6408697898</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>861532.6408697899</v>
+        <v>861532.6408697896</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>861532.6408697898</v>
+        <v>861532.6408697896</v>
       </c>
     </row>
   </sheetData>
@@ -26314,25 +26314,25 @@
         <v>574729.2389049985</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049982</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="E2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830047</v>
       </c>
       <c r="F2" t="n">
         <v>565002.6197830046</v>
       </c>
       <c r="G2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="H2" t="n">
-        <v>565002.6197830047</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="I2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="J2" t="n">
         <v>565002.6197830045</v>
@@ -26341,10 +26341,10 @@
         <v>565002.6197830046</v>
       </c>
       <c r="L2" t="n">
-        <v>565002.6197830047</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="M2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="N2" t="n">
         <v>565002.6197830045</v>
@@ -26353,7 +26353,7 @@
         <v>565002.6197830045</v>
       </c>
       <c r="P2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830045</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.7441040526</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
@@ -26433,7 +26433,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186732</v>
       </c>
       <c r="I4" t="n">
         <v>14826.69604186738</v>
@@ -26451,7 +26451,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="N4" t="n">
-        <v>14826.69604186734</v>
+        <v>14826.69604186737</v>
       </c>
       <c r="O4" t="n">
         <v>14826.69604186736</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-955546.1914880397</v>
+        <v>-955546.1914880399</v>
       </c>
       <c r="C6" t="n">
-        <v>373198.5542395524</v>
+        <v>373198.5542395529</v>
       </c>
       <c r="D6" t="n">
-        <v>373198.5542395526</v>
+        <v>373198.5542395528</v>
       </c>
       <c r="E6" t="n">
-        <v>123640.9321098746</v>
+        <v>123606.1941844395</v>
       </c>
       <c r="F6" t="n">
-        <v>449053.3939172301</v>
+        <v>449018.6559917944</v>
       </c>
       <c r="G6" t="n">
-        <v>449053.3939172299</v>
+        <v>449018.6559917943</v>
       </c>
       <c r="H6" t="n">
-        <v>449053.3939172302</v>
+        <v>449018.6559917943</v>
       </c>
       <c r="I6" t="n">
-        <v>449053.3939172299</v>
+        <v>449018.6559917941</v>
       </c>
       <c r="J6" t="n">
-        <v>231522.1915199526</v>
+        <v>231487.4535945169</v>
       </c>
       <c r="K6" t="n">
-        <v>449053.3939172301</v>
+        <v>449018.6559917944</v>
       </c>
       <c r="L6" t="n">
-        <v>449053.3939172302</v>
+        <v>449018.6559917944</v>
       </c>
       <c r="M6" t="n">
-        <v>363998.3659817182</v>
+        <v>363963.6280562823</v>
       </c>
       <c r="N6" t="n">
-        <v>449053.39391723</v>
+        <v>449018.6559917943</v>
       </c>
       <c r="O6" t="n">
-        <v>449053.39391723</v>
+        <v>449018.6559917943</v>
       </c>
       <c r="P6" t="n">
-        <v>449053.3939172301</v>
+        <v>449018.6559917943</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26805,10 +26805,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26960,13 +26960,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,16 +27382,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>243.8901211953882</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>307.2767095024426</v>
       </c>
     </row>
     <row r="3">
@@ -27464,7 +27464,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27549,13 +27549,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.2047310507519</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>41.54550410914692</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,16 +27616,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>5.70289866554333</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>82.408849102871</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>84.38861029128232</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>262.047652415365</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>80.83090052762333</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>212.9030415727869</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28020,16 +28020,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>150.8536104759054</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>23.53512227109415</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28284,7 +28284,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>-2.430161791044281e-12</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -28302,7 +28302,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>-2.584460300934504e-12</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-4.859222202665234e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29095,7 +29095,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29460,7 +29460,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>-2.430161791044281e-12</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -29992,7 +29992,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,10 +31838,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>247.3820194983584</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>266.392684868584</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31850,16 +31850,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
@@ -32075,7 +32075,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>687.0167715190038</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>248.3870916262918</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32312,25 +32312,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>476.0648089385468</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>512.9101366533182</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32482,7 +32482,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
         <v>926.5868626460027</v>
@@ -32494,7 +32494,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043738</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
@@ -32552,19 +32552,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>395.1848490935921</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>687.0167715190038</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32783,13 +32783,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>249.1672590991333</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,16 +32801,16 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>604.7968300725072</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,16 +33020,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>610.054682604365</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,7 +33038,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>332.1692388321076</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33257,19 +33257,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>229.6463482471742</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>244.0266243181833</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33418,7 +33418,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33442,7 +33442,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33494,22 +33494,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>395.1848490935921</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33658,7 +33658,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33731,10 +33731,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33743,22 +33743,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>602.4605829984181</v>
+        <v>510.8679233250724</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33916,7 +33916,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33977,25 +33977,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>604.7968300725072</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>303.7670002884146</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34129,10 +34129,10 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
@@ -34214,16 +34214,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>382.686909664426</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34232,7 +34232,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34372,7 +34372,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34448,13 +34448,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>391.605194951448</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,10 +34463,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>290.1088399635148</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597743</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>120.5443928316917</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>128.551245894225</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35498,16 +35498,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>37.00975247789211</v>
@@ -35580,7 +35580,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060407</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35723,7 +35723,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>544.4205270745593</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>108.4053175402703</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35811,7 +35811,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010434</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
@@ -35960,25 +35960,25 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>337.5104291586726</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>370.3138922088737</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36042,7 +36042,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096333</v>
       </c>
       <c r="L19" t="n">
         <v>394.3420143191314</v>
@@ -36130,7 +36130,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
         <v>696.488651224316</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,19 +36200,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>253.0508151715738</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>544.4205270745593</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,16 +36449,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>462.2005856280628</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,16 +36668,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,7 +36686,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>189.5729943876631</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36756,10 +36756,10 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191267</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010442</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
@@ -36905,19 +36905,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>101.892590396165</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,22 +37142,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>253.0508151715738</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37306,7 +37306,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37391,22 +37391,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>471.1188709150848</v>
+        <v>379.5262112417391</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>462.2005856280628</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>163.785226202393</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,10 +37777,10 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37862,16 +37862,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>244.1325298845518</v>
+        <v>285.360777932</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,13 +38096,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,10 +38111,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>150.1270658774933</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>
